--- a/tests/data.gui/test/concentrations/ds.5p/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.5p/kev.concentrations.data.xlsx
@@ -9,10 +9,11 @@
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equilibrium_concentrations" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="molecule4_fractions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="percent_error" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="component_names" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="molecule4_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -1292,602 +1293,206 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.47193060075838e-08</v>
+        <v>0.1056</v>
       </c>
       <c r="B2" t="n">
-        <v>4.35648140123142e-06</v>
+        <v>0.0888</v>
       </c>
       <c r="C2" t="n">
-        <v>8.259517860201e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08121321620378e-09</v>
+        <v>9.923e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>7.45206659465737e-20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0719907080442944</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.016804168421762</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.66127872978831e-08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.3841647678127e-07</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.80843408700127e-07</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.87957484667867e-10</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.42518792359449e-11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.21702589109534e-10</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.71419026054514e-10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.5021249924772e-06</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.54793340624783e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.92626363472257e-08</v>
+        <v>0.1012</v>
       </c>
       <c r="B3" t="n">
-        <v>6.3931904435632e-06</v>
+        <v>0.08851</v>
       </c>
       <c r="C3" t="n">
-        <v>6.47880379834073e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D3" t="n">
-        <v>3.40379993218273e-09</v>
+        <v>1.985e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>4.81608329433754e-20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0758048685850804</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0126962819036889</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.61123719046309e-08</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.58839845109512e-07</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.80298241711158e-07</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.84921157679074e-10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.35830017660115e-11</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.72712658642102e-10</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.48223712219937e-10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.84057568965835e-05</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.18391670571381e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.47228702823064e-08</v>
+        <v>0.0968</v>
       </c>
       <c r="B4" t="n">
-        <v>3.99291961879961e-06</v>
+        <v>0.0814</v>
       </c>
       <c r="C4" t="n">
-        <v>4.8107002396986e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D4" t="n">
-        <v>8.97114022037696e-09</v>
+        <v>2.977e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>2.60625463599896e-20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0659871598202329</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0154038153764764</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.10656765883965e-08</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.05270595806089e-06</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.95779185358041e-06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.19016053747683e-09</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.69084677794175e-10</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.83941098693577e-09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.32819141763064e-10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.67463323919366e-05</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.39374536400113e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.4727940615608e-08</v>
+        <v>0.0924</v>
       </c>
       <c r="B5" t="n">
-        <v>3.81071608009767e-06</v>
+        <v>0.0777</v>
       </c>
       <c r="C5" t="n">
-        <v>3.52048982938125e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D5" t="n">
-        <v>2.07920958099104e-08</v>
+        <v>3.969e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>1.32012539677455e-20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0629818914032496</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0147036381007256</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.82953495953828e-08</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.32870226975134e-06</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.13361158046459e-06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.84532678506818e-09</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.57065489549456e-10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.26274311437927e-09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.43558389677107e-10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.31974293792115e-05</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8.67987466014321e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47365109146716e-08</v>
+        <v>0.088</v>
       </c>
       <c r="B6" t="n">
-        <v>3.62811583017332e-06</v>
+        <v>0.074</v>
       </c>
       <c r="C6" t="n">
-        <v>2.64353503687252e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D6" t="n">
-        <v>4.1745766864785e-08</v>
+        <v>4.962e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>7.04167303152096e-21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0599733425383925</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0140034603149184</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.55280567901287e-08</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.45215932665477e-06</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.525388963188e-06</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.26505087421488e-09</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.50254210984737e-10</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8.55727192482073e-09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.82887941121774e-10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.75822333743317e-05</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9.29583269725489e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.47482812436143e-08</v>
+        <v>0.0836</v>
       </c>
       <c r="B7" t="n">
-        <v>3.44522693835876e-06</v>
+        <v>0.0703</v>
       </c>
       <c r="C7" t="n">
-        <v>2.08363248078989e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D7" t="n">
-        <v>7.22009754521897e-08</v>
+        <v>5.954e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>4.19604718423431e-21</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0569624058665408</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0133032824966306</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.27629784158917e-08</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.31360311511096e-06</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.17413953822215e-05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.52230571745555e-08</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.0149874958102e-09</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.47969625777812e-08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.4415214822231e-10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4.0381765519978e-05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9.5803952815769e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.47626832629993e-08</v>
+        <v>0.0792</v>
       </c>
       <c r="B8" t="n">
-        <v>3.26218150633846e-06</v>
+        <v>0.0666</v>
       </c>
       <c r="C8" t="n">
-        <v>1.71176203726648e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D8" t="n">
-        <v>1.11904809667856e-07</v>
+        <v>6.946e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>2.74820344760703e-21</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.053950172903763</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0126031051721784</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.99991107094244e-08</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.07359775280608e-05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.63242950098622e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.23525107973582e-08</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.41189979045813e-09</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.29278870375072e-08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.18424999222424e-10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4.2241130625363e-05</v>
-      </c>
-      <c r="P8" t="n">
-        <v>9.72517965789993e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.47794384478432e-08</v>
+        <v>0.0748</v>
       </c>
       <c r="B9" t="n">
-        <v>3.07906377005467e-06</v>
+        <v>0.0629</v>
       </c>
       <c r="C9" t="n">
-        <v>1.44775282472813e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6132840920442e-07</v>
+        <v>7.938e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>1.92246608026672e-21</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0509373397201389</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0119029287911701</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.72358148223707e-08</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.46132599864922e-05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.09789317691348e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.04343959786216e-08</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.81559309479293e-09</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.30440503699004e-08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.0016002423823e-10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4.35611857963845e-05</v>
-      </c>
-      <c r="P9" t="n">
-        <v>9.80775339197679e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.47985655031628e-08</v>
+        <v>0.0704</v>
       </c>
       <c r="B10" t="n">
-        <v>2.89591900803727e-06</v>
+        <v>0.0592</v>
       </c>
       <c r="C10" t="n">
-        <v>1.24860634505647e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D10" t="n">
-        <v>2.21852402922235e-07</v>
+        <v>8.931e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>1.40536504195348e-21</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.047924280491445</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0112027537864045</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.44727495757641e-08</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.89068743645106e-05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.55373212442338e-05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.93902673231826e-08</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.21163635022672e-09</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4.54250011700792e-08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.63824539995962e-11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4.45569250834905e-05</v>
-      </c>
-      <c r="P10" t="n">
-        <v>9.85946349580465e-20</v>
+        <v>1e-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.47228875479908e-08</v>
+        <v>0.066</v>
       </c>
       <c r="B11" t="n">
-        <v>2.72243915082703e-06</v>
+        <v>0.0555</v>
       </c>
       <c r="C11" t="n">
-        <v>4.2957809709431e-05</v>
+        <v>0.0001016</v>
       </c>
       <c r="D11" t="n">
-        <v>1.23337098223481e-08</v>
+        <v>9.923e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>1.73460130526062e-05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.044991159646946</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0105025847047167</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.16356355615804e-08</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.86781306653099e-07</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.25126155470489e-06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.05300458526756e-09</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.08065262367672e-10</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.52885961446091e-09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.97195431998266e-10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.93209465482157e-05</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6.76539869538576e-05</v>
+        <v>8.5e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.47194089024794e-08</v>
+        <v>0.066</v>
       </c>
       <c r="B12" t="n">
-        <v>2.72278534279773e-06</v>
+        <v>0.0555</v>
       </c>
       <c r="C12" t="n">
-        <v>7.10471770785006e-05</v>
+        <v>1e-04</v>
       </c>
       <c r="D12" t="n">
-        <v>2.22617802819657e-09</v>
+        <v>5e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>4.98832349781443e-05</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0449940204530305</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0105025848468632</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.16329894150031e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.78120823147505e-07</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.25875691363313e-07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7055791219324e-10</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.95052845146662e-11</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4.5647657390629e-10</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.91526374992686e-10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4476165700208e-05</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.51167650717296e-05</v>
+        <v>8.5e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1906,386 +1511,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
+      <c r="A2" t="n">
+        <v>5.47193060075838e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.35648140123142e-06</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.259517860201e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08121321620378e-09</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.45206659465737e-20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0719907080442944</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.016804168421762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.66127872978831e-08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.3841647678127e-07</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.80843408700127e-07</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.87957484667867e-10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.42518792359449e-11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.21702589109534e-10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.71419026054514e-10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.5021249924772e-06</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.54793340624783e-20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
+      <c r="A3" t="n">
+        <v>3.92626363472257e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.3931904435632e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.47880379834073e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.40379993218273e-09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.81608329433754e-20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0758048685850804</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0126962819036889</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.61123719046309e-08</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.58839845109512e-07</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.80298241711158e-07</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.84921157679074e-10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.35830017660115e-11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.72712658642102e-10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.48223712219937e-10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.84057568965835e-05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.18391670571381e-20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
+      <c r="A4" t="n">
+        <v>5.47228702823064e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.99291961879961e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.8107002396986e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.97114022037696e-09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.60625463599896e-20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0659871598202329</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0154038153764764</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.10656765883965e-08</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.05270595806089e-06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.95779185358041e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.19016053747683e-09</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.69084677794175e-10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.83941098693577e-09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.32819141763064e-10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.67463323919366e-05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.39374536400113e-20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
+      <c r="A5" t="n">
+        <v>5.4727940615608e-08</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.81071608009767e-06</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.52048982938125e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.07920958099104e-08</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.32012539677455e-20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0629818914032496</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0147036381007256</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.82953495953828e-08</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.32870226975134e-06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.13361158046459e-06</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.84532678506818e-09</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.57065489549456e-10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.26274311437927e-09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.43558389677107e-10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.31974293792115e-05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.67987466014321e-20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
+      <c r="A6" t="n">
+        <v>5.47365109146716e-08</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.62811583017332e-06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.64353503687252e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.1745766864785e-08</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.04167303152096e-21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0599733425383925</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0140034603149184</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.55280567901287e-08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.45215932665477e-06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.525388963188e-06</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.26505087421488e-09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.50254210984737e-10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.55727192482073e-09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.82887941121774e-10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.75822333743317e-05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.29583269725489e-20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" t="s">
-        <v>76</v>
+      <c r="A7" t="n">
+        <v>5.47482812436143e-08</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.44522693835876e-06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.08363248078989e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.22009754521897e-08</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.19604718423431e-21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0569624058665408</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0133032824966306</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.27629784158917e-08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.31360311511096e-06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.17413953822215e-05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.52230571745555e-08</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0149874958102e-09</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.47969625777812e-08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.4415214822231e-10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.0381765519978e-05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.5803952815769e-20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" t="s">
-        <v>76</v>
+      <c r="A8" t="n">
+        <v>5.47626832629993e-08</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.26218150633846e-06</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.71176203726648e-05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.11904809667856e-07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.74820344760703e-21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.053950172903763</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0126031051721784</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.99991107094244e-08</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.07359775280608e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.63242950098622e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.23525107973582e-08</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.41189979045813e-09</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.29278870375072e-08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.18424999222424e-10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.2241130625363e-05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.72517965789993e-20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" t="s">
-        <v>76</v>
+      <c r="A9" t="n">
+        <v>5.47794384478432e-08</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.07906377005467e-06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.44775282472813e-05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.6132840920442e-07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.92246608026672e-21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0509373397201389</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0119029287911701</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.72358148223707e-08</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.46132599864922e-05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.09789317691348e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.04343959786216e-08</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.81559309479293e-09</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.30440503699004e-08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.0016002423823e-10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.35611857963845e-05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.80775339197679e-20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
+      <c r="A10" t="n">
+        <v>5.47985655031628e-08</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.89591900803727e-06</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.24860634505647e-05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.21852402922235e-07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.40536504195348e-21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.047924280491445</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0112027537864045</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.44727495757641e-08</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.89068743645106e-05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.55373212442338e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.93902673231826e-08</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.21163635022672e-09</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.54250011700792e-08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.63824539995962e-11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.45569250834905e-05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.85946349580465e-20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
+      <c r="A11" t="n">
+        <v>5.47228875479908e-08</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.72243915082703e-06</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.2957809709431e-05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.23337098223481e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.73460130526062e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.044991159646946</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0105025847047167</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.16356355615804e-08</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.86781306653099e-07</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.25126155470489e-06</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05300458526756e-09</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.08065262367672e-10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.52885961446091e-09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.97195431998266e-10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.93209465482157e-05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.76539869538576e-05</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" t="s">
-        <v>137</v>
+      <c r="A12" t="n">
+        <v>5.47194089024794e-08</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.72278534279773e-06</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.10471770785006e-05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.22617802819657e-09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.98832349781443e-05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0449940204530305</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0105025848468632</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.16329894150031e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.78120823147505e-07</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.25875691363313e-07</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.7055791219324e-10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.95052845146662e-11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.5647657390629e-10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.91526374992686e-10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4476165700208e-05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.51167650717296e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2304,206 +2125,386 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3.02262423844444e-15</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.59447206733933e-15</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.8960963025757e-11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.15211322428474e-10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.05200314630368e-11</v>
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4.11396871773156e-15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.70380334690356e-15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.81908571768069e-12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.7805843561995e-12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.13428849049332e-12</v>
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>-2.15048364790513e-15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.38684311190912e-15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.01377171639885e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95753667353362e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.38890847888777e-15</v>
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3.17446886478319e-12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.77504405541784e-12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.01008972983515e-09</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.16056031678741e-08</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.6917751536917e-09</v>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1.15595664353727e-13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.36902501347359e-13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.2458284420135e-11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.62220772981441e-10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.06987515847911e-11</v>
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>-2.65603594407932e-15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.77667269232333e-15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.16136706298062e-14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.84486450453372e-13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.31019209191556e-14</v>
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>5.26111842082865e-12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6.25542327313198e-12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.76280223472358e-10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.89546925780457e-09</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.66063129215965e-10</v>
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1.09463834312975e-14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.32379533937817e-14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.33250411190061e-13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.30497771453528e-12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.45824795639033e-13</v>
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2.56265968042028e-15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.93027614185271e-15</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-1.86747421441893e-15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.3460865925852e-15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.20370621524202e-16</v>
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>5.04646829375071e-15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.37607996158578e-15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.27399090907659e-11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.73676917173691e-11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.60443459631737e-11</v>
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>3.99512073255265e-15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.7509543846572e-15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.29167909577716e-11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8.49453428604374e-11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.86752039418616e-10</v>
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2522,6 +2523,224 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.02262423844444e-15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.59447206733933e-15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.8960963025757e-11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.15211322428474e-10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.05200314630368e-11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.11396871773156e-15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.70380334690356e-15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.81908571768069e-12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.7805843561995e-12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.13428849049332e-12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.15048364790513e-15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.38684311190912e-15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.01377171639885e-14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95753667353362e-14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.38890847888777e-15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.17446886478319e-12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.77504405541784e-12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.01008972983515e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16056031678741e-08</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.6917751536917e-09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.15595664353727e-13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.36902501347359e-13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.2458284420135e-11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.62220772981441e-10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.06987515847911e-11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-2.65603594407932e-15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.77667269232333e-15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.16136706298062e-14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.84486450453372e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.31019209191556e-14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.26111842082865e-12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.25542327313198e-12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.76280223472358e-10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.89546925780457e-09</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.66063129215965e-10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.09463834312975e-14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.32379533937817e-14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.33250411190061e-13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.30497771453528e-12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.45824795639033e-13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.56265968042028e-15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.93027614185271e-15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.86747421441893e-15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.3460865925852e-15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.20370621524202e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.04646829375071e-15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.37607996158578e-15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.27399090907659e-11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.73676917173691e-11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.60443459631737e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.99512073255265e-15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.7509543846572e-15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.29167909577716e-11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.49453428604374e-11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.86752039418616e-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/tests/data.gui/test/concentrations/ds.5p/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.5p/kev.concentrations.data.xlsx
@@ -1319,10 +1319,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D2" t="n">
-        <v>9.923e-06</v>
+        <v>0.000009923</v>
       </c>
       <c r="E2" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1336,10 +1336,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D3" t="n">
-        <v>1.985e-05</v>
+        <v>0.00001985</v>
       </c>
       <c r="E3" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1353,10 +1353,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D4" t="n">
-        <v>2.977e-05</v>
+        <v>0.00002977</v>
       </c>
       <c r="E4" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1370,10 +1370,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D5" t="n">
-        <v>3.969e-05</v>
+        <v>0.00003969</v>
       </c>
       <c r="E5" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1387,10 +1387,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D6" t="n">
-        <v>4.962e-05</v>
+        <v>0.00004962</v>
       </c>
       <c r="E6" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D7" t="n">
-        <v>5.954e-05</v>
+        <v>0.00005954</v>
       </c>
       <c r="E7" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1421,10 +1421,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D8" t="n">
-        <v>6.946e-05</v>
+        <v>0.00006946</v>
       </c>
       <c r="E8" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1438,10 +1438,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D9" t="n">
-        <v>7.938e-05</v>
+        <v>0.00007938</v>
       </c>
       <c r="E9" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1455,10 +1455,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D10" t="n">
-        <v>8.931e-05</v>
+        <v>0.00008931</v>
       </c>
       <c r="E10" t="n">
-        <v>1e-19</v>
+        <v>0.0000000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1472,10 +1472,10 @@
         <v>0.0001016</v>
       </c>
       <c r="D11" t="n">
-        <v>9.923e-05</v>
+        <v>0.00009923</v>
       </c>
       <c r="E11" t="n">
-        <v>8.5e-05</v>
+        <v>0.000085</v>
       </c>
     </row>
     <row r="12">
@@ -1486,13 +1486,13 @@
         <v>0.0555</v>
       </c>
       <c r="C12" t="n">
-        <v>1e-04</v>
+        <v>0.0001</v>
       </c>
       <c r="D12" t="n">
-        <v>5e-05</v>
+        <v>0.00005</v>
       </c>
       <c r="E12" t="n">
-        <v>8.5e-05</v>
+        <v>0.000085</v>
       </c>
     </row>
   </sheetData>
@@ -1561,19 +1561,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.47193060075838e-08</v>
+        <v>0.0000000547193060075838</v>
       </c>
       <c r="B2" t="n">
-        <v>4.35648140123142e-06</v>
+        <v>0.00000435648140123142</v>
       </c>
       <c r="C2" t="n">
-        <v>8.259517860201e-05</v>
+        <v>0.00008259517860201</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08121321620378e-09</v>
+        <v>0.00000000108121321620378</v>
       </c>
       <c r="E2" t="n">
-        <v>7.45206659465737e-20</v>
+        <v>0.0000000000000000000745206659465737</v>
       </c>
       <c r="F2" t="n">
         <v>0.0719907080442944</v>
@@ -1582,48 +1582,48 @@
         <v>0.016804168421762</v>
       </c>
       <c r="H2" t="n">
-        <v>6.66127872978831e-08</v>
+        <v>0.0000000666127872978831</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3841647678127e-07</v>
+        <v>0.00000013841647678127</v>
       </c>
       <c r="J2" t="n">
-        <v>2.80843408700127e-07</v>
+        <v>0.000000280843408700127</v>
       </c>
       <c r="K2" t="n">
-        <v>2.87957484667867e-10</v>
+        <v>0.000000000287957484667867</v>
       </c>
       <c r="L2" t="n">
-        <v>2.42518792359449e-11</v>
+        <v>0.0000000000242518792359449</v>
       </c>
       <c r="M2" t="n">
-        <v>2.21702589109534e-10</v>
+        <v>0.000000000221702589109534</v>
       </c>
       <c r="N2" t="n">
-        <v>5.71419026054514e-10</v>
+        <v>0.000000000571419026054514</v>
       </c>
       <c r="O2" t="n">
-        <v>9.5021249924772e-06</v>
+        <v>0.0000095021249924772</v>
       </c>
       <c r="P2" t="n">
-        <v>2.54793340624783e-20</v>
+        <v>0.0000000000000000000254793340624783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.92626363472257e-08</v>
+        <v>0.0000000392626363472257</v>
       </c>
       <c r="B3" t="n">
-        <v>6.3931904435632e-06</v>
+        <v>0.0000063931904435632</v>
       </c>
       <c r="C3" t="n">
-        <v>6.47880379834073e-05</v>
+        <v>0.0000647880379834073</v>
       </c>
       <c r="D3" t="n">
-        <v>3.40379993218273e-09</v>
+        <v>0.00000000340379993218273</v>
       </c>
       <c r="E3" t="n">
-        <v>4.81608329433754e-20</v>
+        <v>0.0000000000000000000481608329433754</v>
       </c>
       <c r="F3" t="n">
         <v>0.0758048685850804</v>
@@ -1632,48 +1632,48 @@
         <v>0.0126962819036889</v>
       </c>
       <c r="H3" t="n">
-        <v>3.61123719046309e-08</v>
+        <v>0.0000000361123719046309</v>
       </c>
       <c r="I3" t="n">
-        <v>4.58839845109512e-07</v>
+        <v>0.000000458839845109512</v>
       </c>
       <c r="J3" t="n">
-        <v>9.80298241711158e-07</v>
+        <v>0.000000980298241711158</v>
       </c>
       <c r="K3" t="n">
-        <v>6.84921157679074e-10</v>
+        <v>0.000000000684921157679074</v>
       </c>
       <c r="L3" t="n">
-        <v>4.35830017660115e-11</v>
+        <v>0.0000000000435830017660115</v>
       </c>
       <c r="M3" t="n">
-        <v>9.72712658642102e-10</v>
+        <v>0.000000000972712658642102</v>
       </c>
       <c r="N3" t="n">
-        <v>4.48223712219937e-10</v>
+        <v>0.000000000448223712219937</v>
       </c>
       <c r="O3" t="n">
-        <v>1.84057568965835e-05</v>
+        <v>0.0000184057568965835</v>
       </c>
       <c r="P3" t="n">
-        <v>5.18391670571381e-20</v>
+        <v>0.0000000000000000000518391670571381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.47228702823064e-08</v>
+        <v>0.0000000547228702823064</v>
       </c>
       <c r="B4" t="n">
-        <v>3.99291961879961e-06</v>
+        <v>0.00000399291961879961</v>
       </c>
       <c r="C4" t="n">
-        <v>4.8107002396986e-05</v>
+        <v>0.000048107002396986</v>
       </c>
       <c r="D4" t="n">
-        <v>8.97114022037696e-09</v>
+        <v>0.00000000897114022037696</v>
       </c>
       <c r="E4" t="n">
-        <v>2.60625463599896e-20</v>
+        <v>0.0000000000000000000260625463599896</v>
       </c>
       <c r="F4" t="n">
         <v>0.0659871598202329</v>
@@ -1682,48 +1682,48 @@
         <v>0.0154038153764764</v>
       </c>
       <c r="H4" t="n">
-        <v>6.10656765883965e-08</v>
+        <v>0.0000000610656765883965</v>
       </c>
       <c r="I4" t="n">
-        <v>1.05270595806089e-06</v>
+        <v>0.00000105270595806089</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95779185358041e-06</v>
+        <v>0.00000195779185358041</v>
       </c>
       <c r="K4" t="n">
-        <v>2.19016053747683e-09</v>
+        <v>0.00000000219016053747683</v>
       </c>
       <c r="L4" t="n">
-        <v>1.69084677794175e-10</v>
+        <v>0.000000000169084677794175</v>
       </c>
       <c r="M4" t="n">
-        <v>1.83941098693577e-09</v>
+        <v>0.00000000183941098693577</v>
       </c>
       <c r="N4" t="n">
-        <v>3.32819141763064e-10</v>
+        <v>0.000000000332819141763064</v>
       </c>
       <c r="O4" t="n">
-        <v>2.67463323919366e-05</v>
+        <v>0.0000267463323919366</v>
       </c>
       <c r="P4" t="n">
-        <v>7.39374536400113e-20</v>
+        <v>0.0000000000000000000739374536400113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.4727940615608e-08</v>
+        <v>0.000000054727940615608</v>
       </c>
       <c r="B5" t="n">
-        <v>3.81071608009767e-06</v>
+        <v>0.00000381071608009767</v>
       </c>
       <c r="C5" t="n">
-        <v>3.52048982938125e-05</v>
+        <v>0.0000352048982938125</v>
       </c>
       <c r="D5" t="n">
-        <v>2.07920958099104e-08</v>
+        <v>0.0000000207920958099104</v>
       </c>
       <c r="E5" t="n">
-        <v>1.32012539677455e-20</v>
+        <v>0.0000000000000000000132012539677455</v>
       </c>
       <c r="F5" t="n">
         <v>0.0629818914032496</v>
@@ -1732,48 +1732,48 @@
         <v>0.0147036381007256</v>
       </c>
       <c r="H5" t="n">
-        <v>5.82953495953828e-08</v>
+        <v>0.0000000582953495953828</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32870226975134e-06</v>
+        <v>0.00000232870226975134</v>
       </c>
       <c r="J5" t="n">
-        <v>4.13361158046459e-06</v>
+        <v>0.00000413361158046459</v>
       </c>
       <c r="K5" t="n">
-        <v>4.84532678506818e-09</v>
+        <v>0.00000000484532678506818</v>
       </c>
       <c r="L5" t="n">
-        <v>3.57065489549456e-10</v>
+        <v>0.000000000357065489549456</v>
       </c>
       <c r="M5" t="n">
-        <v>4.26274311437927e-09</v>
+        <v>0.00000000426274311437927</v>
       </c>
       <c r="N5" t="n">
-        <v>2.43558389677107e-10</v>
+        <v>0.000000000243558389677107</v>
       </c>
       <c r="O5" t="n">
-        <v>3.31974293792115e-05</v>
+        <v>0.0000331974293792115</v>
       </c>
       <c r="P5" t="n">
-        <v>8.67987466014321e-20</v>
+        <v>0.0000000000000000000867987466014321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47365109146716e-08</v>
+        <v>0.0000000547365109146716</v>
       </c>
       <c r="B6" t="n">
-        <v>3.62811583017332e-06</v>
+        <v>0.00000362811583017332</v>
       </c>
       <c r="C6" t="n">
-        <v>2.64353503687252e-05</v>
+        <v>0.0000264353503687252</v>
       </c>
       <c r="D6" t="n">
-        <v>4.1745766864785e-08</v>
+        <v>0.000000041745766864785</v>
       </c>
       <c r="E6" t="n">
-        <v>7.04167303152096e-21</v>
+        <v>0.00000000000000000000704167303152096</v>
       </c>
       <c r="F6" t="n">
         <v>0.0599733425383925</v>
@@ -1782,48 +1782,48 @@
         <v>0.0140034603149184</v>
       </c>
       <c r="H6" t="n">
-        <v>5.55280567901287e-08</v>
+        <v>0.0000000555280567901287</v>
       </c>
       <c r="I6" t="n">
-        <v>4.45215932665477e-06</v>
+        <v>0.00000445215932665477</v>
       </c>
       <c r="J6" t="n">
-        <v>7.525388963188e-06</v>
+        <v>0.000007525388963188</v>
       </c>
       <c r="K6" t="n">
-        <v>9.26505087421488e-09</v>
+        <v>0.00000000926505087421488</v>
       </c>
       <c r="L6" t="n">
-        <v>6.50254210984737e-10</v>
+        <v>0.000000000650254210984737</v>
       </c>
       <c r="M6" t="n">
-        <v>8.55727192482073e-09</v>
+        <v>0.00000000855727192482073</v>
       </c>
       <c r="N6" t="n">
-        <v>1.82887941121774e-10</v>
+        <v>0.000000000182887941121774</v>
       </c>
       <c r="O6" t="n">
-        <v>3.75822333743317e-05</v>
+        <v>0.0000375822333743317</v>
       </c>
       <c r="P6" t="n">
-        <v>9.29583269725489e-20</v>
+        <v>0.0000000000000000000929583269725489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.47482812436143e-08</v>
+        <v>0.0000000547482812436143</v>
       </c>
       <c r="B7" t="n">
-        <v>3.44522693835876e-06</v>
+        <v>0.00000344522693835876</v>
       </c>
       <c r="C7" t="n">
-        <v>2.08363248078989e-05</v>
+        <v>0.0000208363248078989</v>
       </c>
       <c r="D7" t="n">
-        <v>7.22009754521897e-08</v>
+        <v>0.0000000722009754521897</v>
       </c>
       <c r="E7" t="n">
-        <v>4.19604718423431e-21</v>
+        <v>0.00000000000000000000419604718423431</v>
       </c>
       <c r="F7" t="n">
         <v>0.0569624058665408</v>
@@ -1832,48 +1832,48 @@
         <v>0.0133032824966306</v>
       </c>
       <c r="H7" t="n">
-        <v>5.27629784158917e-08</v>
+        <v>0.0000000527629784158917</v>
       </c>
       <c r="I7" t="n">
-        <v>7.31360311511096e-06</v>
+        <v>0.00000731360311511096</v>
       </c>
       <c r="J7" t="n">
-        <v>1.17413953822215e-05</v>
+        <v>0.0000117413953822215</v>
       </c>
       <c r="K7" t="n">
-        <v>1.52230571745555e-08</v>
+        <v>0.0000000152230571745555</v>
       </c>
       <c r="L7" t="n">
-        <v>1.0149874958102e-09</v>
+        <v>0.0000000010149874958102</v>
       </c>
       <c r="M7" t="n">
-        <v>1.47969625777812e-08</v>
+        <v>0.0000000147969625777812</v>
       </c>
       <c r="N7" t="n">
-        <v>1.4415214822231e-10</v>
+        <v>0.00000000014415214822231</v>
       </c>
       <c r="O7" t="n">
-        <v>4.0381765519978e-05</v>
+        <v>0.000040381765519978</v>
       </c>
       <c r="P7" t="n">
-        <v>9.5803952815769e-20</v>
+        <v>0.000000000000000000095803952815769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.47626832629993e-08</v>
+        <v>0.0000000547626832629993</v>
       </c>
       <c r="B8" t="n">
-        <v>3.26218150633846e-06</v>
+        <v>0.00000326218150633846</v>
       </c>
       <c r="C8" t="n">
-        <v>1.71176203726648e-05</v>
+        <v>0.0000171176203726648</v>
       </c>
       <c r="D8" t="n">
-        <v>1.11904809667856e-07</v>
+        <v>0.000000111904809667856</v>
       </c>
       <c r="E8" t="n">
-        <v>2.74820344760703e-21</v>
+        <v>0.00000000000000000000274820344760703</v>
       </c>
       <c r="F8" t="n">
         <v>0.053950172903763</v>
@@ -1882,48 +1882,48 @@
         <v>0.0126031051721784</v>
       </c>
       <c r="H8" t="n">
-        <v>4.99991107094244e-08</v>
+        <v>0.0000000499991107094244</v>
       </c>
       <c r="I8" t="n">
-        <v>1.07359775280608e-05</v>
+        <v>0.0000107359775280608</v>
       </c>
       <c r="J8" t="n">
-        <v>1.63242950098622e-05</v>
+        <v>0.0000163242950098622</v>
       </c>
       <c r="K8" t="n">
-        <v>2.23525107973582e-08</v>
+        <v>0.0000000223525107973582</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41189979045813e-09</v>
+        <v>0.00000000141189979045813</v>
       </c>
       <c r="M8" t="n">
-        <v>2.29278870375072e-08</v>
+        <v>0.0000000229278870375072</v>
       </c>
       <c r="N8" t="n">
-        <v>1.18424999222424e-10</v>
+        <v>0.000000000118424999222424</v>
       </c>
       <c r="O8" t="n">
-        <v>4.2241130625363e-05</v>
+        <v>0.000042241130625363</v>
       </c>
       <c r="P8" t="n">
-        <v>9.72517965789993e-20</v>
+        <v>0.0000000000000000000972517965789993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.47794384478432e-08</v>
+        <v>0.0000000547794384478432</v>
       </c>
       <c r="B9" t="n">
-        <v>3.07906377005467e-06</v>
+        <v>0.00000307906377005467</v>
       </c>
       <c r="C9" t="n">
-        <v>1.44775282472813e-05</v>
+        <v>0.0000144775282472813</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6132840920442e-07</v>
+        <v>0.00000016132840920442</v>
       </c>
       <c r="E9" t="n">
-        <v>1.92246608026672e-21</v>
+        <v>0.00000000000000000000192246608026672</v>
       </c>
       <c r="F9" t="n">
         <v>0.0509373397201389</v>
@@ -1932,48 +1932,48 @@
         <v>0.0119029287911701</v>
       </c>
       <c r="H9" t="n">
-        <v>4.72358148223707e-08</v>
+        <v>0.0000000472358148223707</v>
       </c>
       <c r="I9" t="n">
-        <v>1.46132599864922e-05</v>
+        <v>0.0000146132599864922</v>
       </c>
       <c r="J9" t="n">
-        <v>2.09789317691348e-05</v>
+        <v>0.0000209789317691348</v>
       </c>
       <c r="K9" t="n">
-        <v>3.04343959786216e-08</v>
+        <v>0.0000000304343959786216</v>
       </c>
       <c r="L9" t="n">
-        <v>1.81559309479293e-09</v>
+        <v>0.00000000181559309479293</v>
       </c>
       <c r="M9" t="n">
-        <v>3.30440503699004e-08</v>
+        <v>0.0000000330440503699004</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0016002423823e-10</v>
+        <v>0.00000000010016002423823</v>
       </c>
       <c r="O9" t="n">
-        <v>4.35611857963845e-05</v>
+        <v>0.0000435611857963845</v>
       </c>
       <c r="P9" t="n">
-        <v>9.80775339197679e-20</v>
+        <v>0.0000000000000000000980775339197679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.47985655031628e-08</v>
+        <v>0.0000000547985655031628</v>
       </c>
       <c r="B10" t="n">
-        <v>2.89591900803727e-06</v>
+        <v>0.00000289591900803727</v>
       </c>
       <c r="C10" t="n">
-        <v>1.24860634505647e-05</v>
+        <v>0.0000124860634505647</v>
       </c>
       <c r="D10" t="n">
-        <v>2.21852402922235e-07</v>
+        <v>0.000000221852402922235</v>
       </c>
       <c r="E10" t="n">
-        <v>1.40536504195348e-21</v>
+        <v>0.00000000000000000000140536504195348</v>
       </c>
       <c r="F10" t="n">
         <v>0.047924280491445</v>
@@ -1982,48 +1982,48 @@
         <v>0.0112027537864045</v>
       </c>
       <c r="H10" t="n">
-        <v>4.44727495757641e-08</v>
+        <v>0.0000000444727495757641</v>
       </c>
       <c r="I10" t="n">
-        <v>1.89068743645106e-05</v>
+        <v>0.0000189068743645106</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55373212442338e-05</v>
+        <v>0.0000255373212442338</v>
       </c>
       <c r="K10" t="n">
-        <v>3.93902673231826e-08</v>
+        <v>0.0000000393902673231826</v>
       </c>
       <c r="L10" t="n">
-        <v>2.21163635022672e-09</v>
+        <v>0.00000000221163635022672</v>
       </c>
       <c r="M10" t="n">
-        <v>4.54250011700792e-08</v>
+        <v>0.0000000454250011700792</v>
       </c>
       <c r="N10" t="n">
-        <v>8.63824539995962e-11</v>
+        <v>0.0000000000863824539995962</v>
       </c>
       <c r="O10" t="n">
-        <v>4.45569250834905e-05</v>
+        <v>0.0000445569250834905</v>
       </c>
       <c r="P10" t="n">
-        <v>9.85946349580465e-20</v>
+        <v>0.0000000000000000000985946349580465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.47228875479908e-08</v>
+        <v>0.0000000547228875479908</v>
       </c>
       <c r="B11" t="n">
-        <v>2.72243915082703e-06</v>
+        <v>0.00000272243915082703</v>
       </c>
       <c r="C11" t="n">
-        <v>4.2957809709431e-05</v>
+        <v>0.000042957809709431</v>
       </c>
       <c r="D11" t="n">
-        <v>1.23337098223481e-08</v>
+        <v>0.0000000123337098223481</v>
       </c>
       <c r="E11" t="n">
-        <v>1.73460130526062e-05</v>
+        <v>0.0000173460130526062</v>
       </c>
       <c r="F11" t="n">
         <v>0.044991159646946</v>
@@ -2032,48 +2032,48 @@
         <v>0.0105025847047167</v>
       </c>
       <c r="H11" t="n">
-        <v>4.16356355615804e-08</v>
+        <v>0.0000000416356355615804</v>
       </c>
       <c r="I11" t="n">
-        <v>9.86781306653099e-07</v>
+        <v>0.000000986781306653099</v>
       </c>
       <c r="J11" t="n">
-        <v>1.25126155470489e-06</v>
+        <v>0.00000125126155470489</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05300458526756e-09</v>
+        <v>0.00000000205300458526756</v>
       </c>
       <c r="L11" t="n">
-        <v>1.08065262367672e-10</v>
+        <v>0.000000000108065262367672</v>
       </c>
       <c r="M11" t="n">
-        <v>2.52885961446091e-09</v>
+        <v>0.00000000252885961446091</v>
       </c>
       <c r="N11" t="n">
-        <v>2.97195431998266e-10</v>
+        <v>0.000000000297195431998266</v>
       </c>
       <c r="O11" t="n">
-        <v>2.93209465482157e-05</v>
+        <v>0.0000293209465482157</v>
       </c>
       <c r="P11" t="n">
-        <v>6.76539869538576e-05</v>
+        <v>0.0000676539869538576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.47194089024794e-08</v>
+        <v>0.0000000547194089024794</v>
       </c>
       <c r="B12" t="n">
-        <v>2.72278534279773e-06</v>
+        <v>0.00000272278534279773</v>
       </c>
       <c r="C12" t="n">
-        <v>7.10471770785006e-05</v>
+        <v>0.0000710471770785006</v>
       </c>
       <c r="D12" t="n">
-        <v>2.22617802819657e-09</v>
+        <v>0.00000000222617802819657</v>
       </c>
       <c r="E12" t="n">
-        <v>4.98832349781443e-05</v>
+        <v>0.0000498832349781443</v>
       </c>
       <c r="F12" t="n">
         <v>0.0449940204530305</v>
@@ -2082,31 +2082,31 @@
         <v>0.0105025848468632</v>
       </c>
       <c r="H12" t="n">
-        <v>4.16329894150031e-08</v>
+        <v>0.0000000416329894150031</v>
       </c>
       <c r="I12" t="n">
-        <v>1.78120823147505e-07</v>
+        <v>0.000000178120823147505</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25875691363313e-07</v>
+        <v>0.000000225875691363313</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7055791219324e-10</v>
+        <v>0.00000000037055791219324</v>
       </c>
       <c r="L12" t="n">
-        <v>1.95052845146662e-11</v>
+        <v>0.0000000000195052845146662</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5647657390629e-10</v>
+        <v>0.00000000045647657390629</v>
       </c>
       <c r="N12" t="n">
-        <v>4.91526374992686e-10</v>
+        <v>0.000000000491526374992686</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4476165700208e-05</v>
+        <v>0.000014476165700208</v>
       </c>
       <c r="P12" t="n">
-        <v>3.51167650717296e-05</v>
+        <v>0.0000351167650717296</v>
       </c>
     </row>
   </sheetData>
@@ -2540,189 +2540,189 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.02262423844444e-15</v>
+        <v>0.00000000000000302262423844444</v>
       </c>
       <c r="B2" t="n">
-        <v>3.59447206733933e-15</v>
+        <v>0.00000000000000359447206733933</v>
       </c>
       <c r="C2" t="n">
-        <v>5.8960963025757e-11</v>
+        <v>0.000000000058960963025757</v>
       </c>
       <c r="D2" t="n">
-        <v>3.15211322428474e-10</v>
+        <v>0.000000000315211322428474</v>
       </c>
       <c r="E2" t="n">
-        <v>9.05200314630368e-11</v>
+        <v>0.0000000000905200314630368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.11396871773156e-15</v>
+        <v>0.00000000000000411396871773156</v>
       </c>
       <c r="B3" t="n">
-        <v>4.70380334690356e-15</v>
+        <v>0.00000000000000470380334690356</v>
       </c>
       <c r="C3" t="n">
-        <v>2.81908571768069e-12</v>
+        <v>0.00000000000281908571768069</v>
       </c>
       <c r="D3" t="n">
-        <v>7.7805843561995e-12</v>
+        <v>0.0000000000077805843561995</v>
       </c>
       <c r="E3" t="n">
-        <v>5.13428849049332e-12</v>
+        <v>0.00000000000513428849049332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.15048364790513e-15</v>
+        <v>-0.00000000000000215048364790513</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.38684311190912e-15</v>
+        <v>-0.00000000000000238684311190912</v>
       </c>
       <c r="C4" t="n">
-        <v>1.01377171639885e-14</v>
+        <v>0.0000000000000101377171639885</v>
       </c>
       <c r="D4" t="n">
-        <v>1.95753667353362e-14</v>
+        <v>0.0000000000000195753667353362</v>
       </c>
       <c r="E4" t="n">
-        <v>9.38890847888777e-15</v>
+        <v>0.00000000000000938890847888777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.17446886478319e-12</v>
+        <v>0.00000000000317446886478319</v>
       </c>
       <c r="B5" t="n">
-        <v>3.77504405541784e-12</v>
+        <v>0.00000000000377504405541784</v>
       </c>
       <c r="C5" t="n">
-        <v>6.01008972983515e-09</v>
+        <v>0.00000000601008972983515</v>
       </c>
       <c r="D5" t="n">
-        <v>1.16056031678741e-08</v>
+        <v>0.0000000116056031678741</v>
       </c>
       <c r="E5" t="n">
-        <v>5.6917751536917e-09</v>
+        <v>0.0000000056917751536917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.15595664353727e-13</v>
+        <v>0.000000000000115595664353727</v>
       </c>
       <c r="B6" t="n">
-        <v>1.36902501347359e-13</v>
+        <v>0.000000000000136902501347359</v>
       </c>
       <c r="C6" t="n">
-        <v>5.2458284420135e-11</v>
+        <v>0.000000000052458284420135</v>
       </c>
       <c r="D6" t="n">
-        <v>1.62220772981441e-10</v>
+        <v>0.000000000162220772981441</v>
       </c>
       <c r="E6" t="n">
-        <v>4.06987515847911e-11</v>
+        <v>0.0000000000406987515847911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.65603594407932e-15</v>
+        <v>-0.00000000000000265603594407932</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.77667269232333e-15</v>
+        <v>-0.00000000000000177667269232333</v>
       </c>
       <c r="C7" t="n">
-        <v>3.16136706298062e-14</v>
+        <v>0.0000000000000316136706298062</v>
       </c>
       <c r="D7" t="n">
-        <v>1.84486450453372e-13</v>
+        <v>0.000000000000184486450453372</v>
       </c>
       <c r="E7" t="n">
-        <v>3.31019209191556e-14</v>
+        <v>0.0000000000000331019209191556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.26111842082865e-12</v>
+        <v>0.00000000000526111842082865</v>
       </c>
       <c r="B8" t="n">
-        <v>6.25542327313198e-12</v>
+        <v>0.00000000000625542327313198</v>
       </c>
       <c r="C8" t="n">
-        <v>4.76280223472358e-10</v>
+        <v>0.000000000476280223472358</v>
       </c>
       <c r="D8" t="n">
-        <v>3.89546925780457e-09</v>
+        <v>0.00000000389546925780457</v>
       </c>
       <c r="E8" t="n">
-        <v>2.66063129215965e-10</v>
+        <v>0.000000000266063129215965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.09463834312975e-14</v>
+        <v>0.0000000000000109463834312975</v>
       </c>
       <c r="B9" t="n">
-        <v>1.32379533937817e-14</v>
+        <v>0.0000000000000132379533937817</v>
       </c>
       <c r="C9" t="n">
-        <v>7.33250411190061e-13</v>
+        <v>0.000000000000733250411190061</v>
       </c>
       <c r="D9" t="n">
-        <v>8.30497771453528e-12</v>
+        <v>0.00000000000830497771453528</v>
       </c>
       <c r="E9" t="n">
-        <v>3.45824795639033e-13</v>
+        <v>0.000000000000345824795639033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.56265968042028e-15</v>
+        <v>0.00000000000000256265968042028</v>
       </c>
       <c r="B10" t="n">
-        <v>2.93027614185271e-15</v>
+        <v>0.00000000000000293027614185271</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.86747421441893e-15</v>
+        <v>-0.00000000000000186747421441893</v>
       </c>
       <c r="D10" t="n">
-        <v>8.3460865925852e-15</v>
+        <v>0.0000000000000083460865925852</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.20370621524202e-16</v>
+        <v>-0.000000000000000120370621524202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.04646829375071e-15</v>
+        <v>0.00000000000000504646829375071</v>
       </c>
       <c r="B11" t="n">
-        <v>5.37607996158578e-15</v>
+        <v>0.00000000000000537607996158578</v>
       </c>
       <c r="C11" t="n">
-        <v>1.27399090907659e-11</v>
+        <v>0.0000000000127399090907659</v>
       </c>
       <c r="D11" t="n">
-        <v>2.73676917173691e-11</v>
+        <v>0.0000000000273676917173691</v>
       </c>
       <c r="E11" t="n">
-        <v>7.60443459631737e-11</v>
+        <v>0.0000000000760443459631737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.99512073255265e-15</v>
+        <v>0.00000000000000399512073255265</v>
       </c>
       <c r="B12" t="n">
-        <v>4.7509543846572e-15</v>
+        <v>0.0000000000000047509543846572</v>
       </c>
       <c r="C12" t="n">
-        <v>5.29167909577716e-11</v>
+        <v>0.0000000000529167909577716</v>
       </c>
       <c r="D12" t="n">
-        <v>8.49453428604374e-11</v>
+        <v>0.0000000000849453428604374</v>
       </c>
       <c r="E12" t="n">
-        <v>5.86752039418616e-10</v>
+        <v>0.000000000586752039418616</v>
       </c>
     </row>
   </sheetData>
